--- a/server/Pipeline.xlsx
+++ b/server/Pipeline.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CEF8C4-25D8-5340-AA5A-BA7EDBF9325C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="28620" windowHeight="11895"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>Nurse</t>
   </si>
@@ -33,30 +39,15 @@
     <t>Rate of Pay requested</t>
   </si>
   <si>
-    <t>ICU</t>
-  </si>
-  <si>
     <t>FL</t>
   </si>
   <si>
-    <t>LPN</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>MS/TELE</t>
-  </si>
-  <si>
     <t>Anjuli Kolarik</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>TN</t>
   </si>
   <si>
@@ -72,12 +63,6 @@
     <t>Myrtle Beach</t>
   </si>
   <si>
-    <t>NICU</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -138,9 +123,6 @@
     <t>Lisa Coldewey</t>
   </si>
   <si>
-    <t>Endo</t>
-  </si>
-  <si>
     <t>Council Bluffs</t>
   </si>
   <si>
@@ -204,18 +186,12 @@
     <t>Michelle Knight</t>
   </si>
   <si>
-    <t>Psych RN</t>
-  </si>
-  <si>
     <t>Los Angeles</t>
   </si>
   <si>
     <t>CA</t>
   </si>
   <si>
-    <t>Wound Care RN</t>
-  </si>
-  <si>
     <t>Lakeland</t>
   </si>
   <si>
@@ -246,9 +222,6 @@
     <t>Heather Bales</t>
   </si>
   <si>
-    <t xml:space="preserve">ICU </t>
-  </si>
-  <si>
     <t>WA</t>
   </si>
   <si>
@@ -259,12 +232,42 @@
   </si>
   <si>
     <t>Wilmington</t>
+  </si>
+  <si>
+    <t>NICU RN</t>
+  </si>
+  <si>
+    <t>OR RN</t>
+  </si>
+  <si>
+    <t>MS RN</t>
+  </si>
+  <si>
+    <t>Emergency RN</t>
+  </si>
+  <si>
+    <t>LVN/LPN</t>
+  </si>
+  <si>
+    <t>Endoscopy  RN</t>
+  </si>
+  <si>
+    <t>ICU/CCU RN</t>
+  </si>
+  <si>
+    <t>MS/TELE RN</t>
+  </si>
+  <si>
+    <t>Psychiatric/Mental Health RN</t>
+  </si>
+  <si>
+    <t>Wound Care</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,6 +426,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -470,7 +476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,9 +509,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,6 +561,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -713,26 +753,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="54.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="54.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,19 +780,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -761,21 +801,21 @@
         <v>4</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>37501</v>
@@ -784,7 +824,7 @@
         <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H2" s="8">
         <v>43416</v>
@@ -793,21 +833,21 @@
         <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>29572</v>
@@ -816,7 +856,7 @@
         <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H3" s="8">
         <v>43416</v>
@@ -825,21 +865,21 @@
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>29229</v>
@@ -848,7 +888,7 @@
         <v>400</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H4" s="8">
         <v>43444</v>
@@ -857,21 +897,21 @@
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>85001</v>
@@ -880,7 +920,7 @@
         <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H5" s="8">
         <v>43444</v>
@@ -889,18 +929,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>51503</v>
@@ -909,7 +949,7 @@
         <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H6" s="8">
         <v>43416</v>
@@ -918,18 +958,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>89027</v>
@@ -938,7 +978,7 @@
         <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H7" s="8">
         <v>43444</v>
@@ -947,21 +987,21 @@
         <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>49202</v>
@@ -970,7 +1010,7 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H8" s="8">
         <v>43437</v>
@@ -979,21 +1019,21 @@
         <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
       </c>
       <c r="E9">
         <v>28779</v>
@@ -1002,7 +1042,7 @@
         <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H9" s="8">
         <v>43409</v>
@@ -1011,21 +1051,21 @@
         <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>1960</v>
@@ -1034,7 +1074,7 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H10" s="8">
         <v>43437</v>
@@ -1043,18 +1083,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>4573</v>
@@ -1063,7 +1103,7 @@
         <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H11" s="8">
         <v>43444</v>
@@ -1072,18 +1112,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>72956</v>
@@ -1092,7 +1132,7 @@
         <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H12" s="8">
         <v>43437</v>
@@ -1101,18 +1141,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>91504</v>
@@ -1121,7 +1161,7 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H13" s="8">
         <v>43437</v>
@@ -1130,18 +1170,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>33809</v>
@@ -1150,7 +1190,7 @@
         <v>500</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H14" s="8">
         <v>43437</v>
@@ -1159,21 +1199,21 @@
         <v>46</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>94203</v>
@@ -1182,7 +1222,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H15" s="8">
         <v>43101</v>
@@ -1191,18 +1231,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>32708</v>
@@ -1211,7 +1251,7 @@
         <v>1000</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H16" s="8">
         <v>43107</v>
@@ -1220,21 +1260,21 @@
         <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>98101</v>
@@ -1243,7 +1283,7 @@
         <v>200</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H17" s="8">
         <v>43121</v>
@@ -1252,18 +1292,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>28403</v>
@@ -1272,7 +1312,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H18" s="8">
         <v>43437</v>
@@ -1287,24 +1327,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
